--- a/data/TUMI_HK.xlsx
+++ b/data/TUMI_HK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\huang111\tumi-cn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33EDBF8-F0D1-4232-87A7-30E622FADA82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE4E84A-F762-44A8-99F5-26F0C93B9685}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="3465" windowWidth="19095" windowHeight="10920" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="19095" windowHeight="10920" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="561">
   <si>
     <t>序号</t>
   </si>
@@ -998,6 +998,9 @@
     <t>(1)</t>
   </si>
   <si>
+    <t>/html[1]/body[1]/div[2]/section[1]/nav[1]/ul[1]/div[2]/li[2]/a[1]</t>
+  </si>
+  <si>
     <t>向下拖动500个像素点</t>
   </si>
   <si>
@@ -1013,10 +1016,13 @@
     <t>点击第一个产品的比较勾选框</t>
   </si>
   <si>
-    <t>//body/div[1]/main[1]/div[4]/div[2]/div[1]/div[1]/div[2]/div[1]/div[1]/span[2]</t>
-  </si>
-  <si>
-    <t>添加1或2个商品</t>
+    <t>/html[1]/body[1]/div[1]/main[1]/div[4]/div[2]/div[3]/div[3]/div[1]/div[1]/div[1]/div[1]/div[2]/label[1]</t>
+  </si>
+  <si>
+    <t>/html[1]/body[1]/div[1]/main[1]/div[4]/div[2]/div[1]/div[1]/div[2]/div[1]/div[1]/span[2]</t>
+  </si>
+  <si>
+    <t>Add 1 or 2 items</t>
   </si>
   <si>
     <t>再次点击第一个产品的比较勾选框，取消勾选</t>
@@ -1025,27 +1031,36 @@
     <t>点击‘首页’面包屑</t>
   </si>
   <si>
+    <t>//span[contains(text(),'Home')]</t>
+  </si>
+  <si>
     <t>断言url</t>
   </si>
   <si>
+    <t>https://stage.tumi-hk.com/</t>
+  </si>
+  <si>
     <t>/html[1]/body[1]/div[1]/main[1]/div[4]/div[2]/div[1]/div[1]/div[1]/h1[1]/span[1]</t>
   </si>
   <si>
-    <t>登机箱 - 旅行拉杆箱</t>
+    <t>Carry On Luggage - Travel Rolling Luggage</t>
   </si>
   <si>
     <t>回退到上一页</t>
   </si>
   <si>
+    <t>/html[1]/body[1]/div[1]/main[1]/div[2]/div[1]/div[2]/div[1]/div[1]/div[1]/a[1]</t>
+  </si>
+  <si>
+    <t>All Luggage, from Checked Bags to Backpacks</t>
+  </si>
+  <si>
     <t>回到第一个网页</t>
   </si>
   <si>
     <t>switch_to_default_window</t>
   </si>
   <si>
-    <t>https://stage.tumi-hk.com/</t>
-  </si>
-  <si>
     <t>点击登录按钮</t>
   </si>
   <si>
@@ -1082,15 +1097,9 @@
     <t>//body[1]/div[2]/div[2]/div[2]/div[1]/div[4]/header[1]/a[1]/span[1]</t>
   </si>
   <si>
-    <t>/html[1]/body[1]/div[2]/section[1]/nav[1]/ul[1]/div[2]/li[2]/a[1]</t>
-  </si>
-  <si>
     <t>点击一级分类中‘首页’面包屑</t>
   </si>
   <si>
-    <t>//span[contains(text(),'Home')]</t>
-  </si>
-  <si>
     <t>输入旧密码</t>
   </si>
   <si>
@@ -1497,9 +1506,6 @@
   </si>
   <si>
     <t>luggage</t>
-  </si>
-  <si>
-    <t>All Luggage, from Checked Bags to Backpacks</t>
   </si>
   <si>
     <t>backpacks</t>
@@ -2033,10 +2039,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2349,8 +2355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2395,7 +2401,7 @@
       <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -2416,7 +2422,7 @@
       <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="38" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -2437,7 +2443,7 @@
       <c r="C4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -2458,7 +2464,7 @@
       <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -2479,7 +2485,7 @@
       <c r="C6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="38" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="11" t="s">
@@ -2500,7 +2506,7 @@
       <c r="C7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="38" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -2521,7 +2527,7 @@
       <c r="C8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="38" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -2542,7 +2548,7 @@
       <c r="C9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="38" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -2563,7 +2569,7 @@
       <c r="C10" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="38" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="11" t="s">
@@ -2584,7 +2590,7 @@
       <c r="C11" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="38" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -2605,7 +2611,7 @@
       <c r="C12" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="38" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -2626,7 +2632,7 @@
       <c r="C13" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="38" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -2647,7 +2653,7 @@
       <c r="C14" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="38" t="s">
         <v>46</v>
       </c>
       <c r="E14" s="11" t="s">
@@ -2668,7 +2674,7 @@
       <c r="C15" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="38" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -2689,7 +2695,7 @@
       <c r="C16" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="38" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="11" t="s">
@@ -2710,7 +2716,7 @@
       <c r="C17" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="38" t="s">
         <v>55</v>
       </c>
       <c r="E17" s="11" t="s">
@@ -2731,7 +2737,7 @@
       <c r="C18" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="38" t="s">
         <v>58</v>
       </c>
       <c r="E18" s="11" t="s">
@@ -2752,7 +2758,7 @@
       <c r="C19" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="38" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="11" t="s">
@@ -2773,7 +2779,7 @@
       <c r="C20" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="38" t="s">
         <v>64</v>
       </c>
       <c r="E20" s="11" t="s">
@@ -2794,7 +2800,7 @@
       <c r="C21" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="38" t="s">
         <v>67</v>
       </c>
       <c r="E21" s="11" t="s">
@@ -2815,7 +2821,7 @@
       <c r="C22" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="38" t="s">
         <v>70</v>
       </c>
       <c r="E22" s="11" t="s">
@@ -2836,7 +2842,7 @@
       <c r="C23" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="38" t="s">
         <v>73</v>
       </c>
       <c r="E23" s="11" t="s">
@@ -2857,7 +2863,7 @@
       <c r="C24" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="38" t="s">
         <v>76</v>
       </c>
       <c r="E24" s="11" t="s">
@@ -2878,7 +2884,7 @@
       <c r="C25" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="38" t="s">
         <v>79</v>
       </c>
       <c r="E25" s="11" t="s">
@@ -2899,7 +2905,7 @@
       <c r="C26" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="38" t="s">
         <v>82</v>
       </c>
       <c r="E26" s="11" t="s">
@@ -2920,7 +2926,7 @@
       <c r="C27" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="38" t="s">
         <v>85</v>
       </c>
       <c r="E27" s="11" t="s">
@@ -2941,7 +2947,7 @@
       <c r="C28" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="38" t="s">
         <v>88</v>
       </c>
       <c r="E28" s="11" t="s">
@@ -2962,7 +2968,7 @@
       <c r="C29" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="38" t="s">
         <v>91</v>
       </c>
       <c r="E29" s="11" t="s">
@@ -2983,7 +2989,7 @@
       <c r="C30" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="38" t="s">
         <v>94</v>
       </c>
       <c r="E30" s="11" t="s">
@@ -3002,7 +3008,7 @@
       <c r="C31" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="38" t="s">
         <v>97</v>
       </c>
       <c r="E31" s="11" t="s">
@@ -3023,7 +3029,7 @@
       <c r="C32" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="38" t="s">
         <v>100</v>
       </c>
       <c r="E32" s="11" t="s">
@@ -3041,7 +3047,7 @@
       <c r="C33" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="38" t="s">
         <v>103</v>
       </c>
       <c r="E33" s="11" t="s">
@@ -3062,7 +3068,7 @@
       <c r="C34" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="38" t="s">
         <v>106</v>
       </c>
       <c r="E34" s="11" t="s">
@@ -3083,7 +3089,7 @@
       <c r="C35" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="38" t="s">
         <v>109</v>
       </c>
       <c r="E35" s="11" t="s">
@@ -3104,7 +3110,7 @@
       <c r="C36" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="38" t="s">
         <v>112</v>
       </c>
       <c r="E36" s="11" t="s">
@@ -3125,7 +3131,7 @@
       <c r="C37" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="38" t="s">
         <v>115</v>
       </c>
       <c r="E37" s="11" t="s">
@@ -3146,7 +3152,7 @@
       <c r="C38" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="38" t="s">
         <v>118</v>
       </c>
       <c r="E38" s="11" t="s">
@@ -3167,13 +3173,15 @@
       <c r="C39" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="39" t="s">
+      <c r="D39" s="38" t="s">
         <v>122</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="29"/>
+        <v>119</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>10</v>
+      </c>
       <c r="G39" s="34"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
@@ -3186,13 +3194,15 @@
       <c r="C40" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D40" s="39" t="s">
+      <c r="D40" s="38" t="s">
         <v>125</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="29"/>
+        <v>119</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>10</v>
+      </c>
       <c r="G40" s="34"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
@@ -3205,13 +3215,15 @@
       <c r="C41" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D41" s="39" t="s">
+      <c r="D41" s="38" t="s">
         <v>128</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="29"/>
+        <v>119</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>10</v>
+      </c>
       <c r="G41" s="34"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
@@ -3224,13 +3236,15 @@
       <c r="C42" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="38" t="s">
         <v>131</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="29"/>
+        <v>119</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>10</v>
+      </c>
       <c r="G42" s="34"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
@@ -3243,13 +3257,15 @@
       <c r="C43" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="38" t="s">
         <v>134</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="29"/>
+        <v>119</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>10</v>
+      </c>
       <c r="G43" s="34"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
@@ -3262,7 +3278,7 @@
       <c r="C44" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="39" t="s">
+      <c r="D44" s="38" t="s">
         <v>137</v>
       </c>
       <c r="E44" s="11" t="s">
@@ -3281,7 +3297,7 @@
       <c r="C45" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="38" t="s">
         <v>140</v>
       </c>
       <c r="E45" s="11" t="s">
@@ -3300,7 +3316,7 @@
       <c r="C46" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D46" s="38" t="s">
         <v>143</v>
       </c>
       <c r="E46" s="11" t="s">
@@ -3319,7 +3335,7 @@
       <c r="C47" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="D47" s="39" t="s">
+      <c r="D47" s="38" t="s">
         <v>146</v>
       </c>
       <c r="E47" s="11" t="s">
@@ -3338,7 +3354,7 @@
       <c r="C48" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="D48" s="39" t="s">
+      <c r="D48" s="38" t="s">
         <v>149</v>
       </c>
       <c r="E48" s="11" t="s">
@@ -3359,7 +3375,7 @@
       <c r="C49" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D49" s="39" t="s">
+      <c r="D49" s="38" t="s">
         <v>153</v>
       </c>
       <c r="E49" s="11" t="s">
@@ -3378,7 +3394,7 @@
       <c r="C50" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="D50" s="39" t="s">
+      <c r="D50" s="38" t="s">
         <v>156</v>
       </c>
       <c r="E50" s="11" t="s">
@@ -3397,7 +3413,7 @@
       <c r="C51" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D51" s="39" t="s">
+      <c r="D51" s="38" t="s">
         <v>159</v>
       </c>
       <c r="E51" s="11" t="s">
@@ -3416,7 +3432,7 @@
       <c r="C52" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="D52" s="38" t="s">
         <v>162</v>
       </c>
       <c r="E52" s="11" t="s">
@@ -3435,7 +3451,7 @@
       <c r="C53" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="D53" s="39" t="s">
+      <c r="D53" s="38" t="s">
         <v>165</v>
       </c>
       <c r="E53" s="11" t="s">
@@ -3454,7 +3470,7 @@
       <c r="C54" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="D54" s="39" t="s">
+      <c r="D54" s="38" t="s">
         <v>168</v>
       </c>
       <c r="E54" s="11" t="s">
@@ -3473,7 +3489,7 @@
       <c r="C55" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="D55" s="39" t="s">
+      <c r="D55" s="38" t="s">
         <v>171</v>
       </c>
       <c r="E55" s="11" t="s">
@@ -3492,7 +3508,7 @@
       <c r="C56" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="D56" s="39" t="s">
+      <c r="D56" s="38" t="s">
         <v>174</v>
       </c>
       <c r="E56" s="11" t="s">
@@ -3511,7 +3527,7 @@
       <c r="C57" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="D57" s="39" t="s">
+      <c r="D57" s="38" t="s">
         <v>177</v>
       </c>
       <c r="E57" s="11" t="s">
@@ -3535,62 +3551,62 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D38" location="ViewCrumbs!A1" display="ViewCrumbs" xr:uid="{834E72C9-70A1-4373-A4F6-4392A3EAAA08}"/>
-    <hyperlink ref="D2" location="ViewTheHeader!A1" display="ViewTheHeader" xr:uid="{4BC3FF9D-2758-49D8-A05E-05298E0C2C9B}"/>
-    <hyperlink ref="D3" location="ViewTheHeader2!A1" display="ViewTheHeader2" xr:uid="{1EDFE0F4-6CFE-4768-AFB5-B0960BEBB414}"/>
-    <hyperlink ref="D4" location="SearchExist!A1" display="SearchExist" xr:uid="{B28387AE-F5E0-4D1C-8630-0ECA6CF225C3}"/>
-    <hyperlink ref="D5" location="Search!A1" display="Search" xr:uid="{985CD4CA-F751-4EA2-B311-C8D2E5AE47C8}"/>
-    <hyperlink ref="D6" location="SearchKeyWord!A1" display="SearchKeyWord" xr:uid="{6078A469-AED8-4EAE-A922-D90CEFD90E84}"/>
-    <hyperlink ref="D7" location="CategoryPages!A1" display="CategoryPages" xr:uid="{5101F002-B5E2-4691-BFC6-67C6F425CFE1}"/>
-    <hyperlink ref="D8" location="Bottom!A1" display="Bottom" xr:uid="{099F16F8-EE22-4032-A5FE-EB0898A99D5B}"/>
-    <hyperlink ref="D9" location="LoginNoPhone!A1" display="LoginNoPhone" xr:uid="{EF90BE31-F400-4312-9F38-C1E25181A5A8}"/>
-    <hyperlink ref="D10" location="LoginErrorPhone!A1" display="LoginErrorPhone" xr:uid="{829091CC-4B1D-4E70-90FA-A52C3AAB7E10}"/>
-    <hyperlink ref="D11" location="LoginNoPassword!A1" display="LoginNoPassword" xr:uid="{E5538475-42EC-43C9-8370-9B961363FE54}"/>
-    <hyperlink ref="D12" location="LoginErrorPassword!A1" display="LoginErrorPassword" xr:uid="{589C0CBD-8141-45F5-8BD7-2606AF8A5012}"/>
-    <hyperlink ref="D13" location="LoginOut!A1" display="LoginOut" xr:uid="{DA5B28DB-EF72-4C46-88A2-DAA71C003B16}"/>
-    <hyperlink ref="D14" location="MyAccount!A1" display="MyAccount" xr:uid="{B8D0EFCC-3AC4-4ADB-ACB0-3A992F884546}"/>
-    <hyperlink ref="D15" location="MyInfo!A1" display="MyInfo" xr:uid="{65554494-93FD-4EF2-907F-E3679D18CE31}"/>
-    <hyperlink ref="D16" location="InfoStore!A1" display="InfoStore" xr:uid="{82A4CFFB-C970-4F2D-BCEC-692D4822C22F}"/>
-    <hyperlink ref="D17" location="DiyCustom!A1" display="DiyCustom" xr:uid="{3BA95E19-1C75-44AA-9A1C-7F0957FDB544}"/>
-    <hyperlink ref="D18" location="UpdateInfo!A1" display="UpdateInfo" xr:uid="{A6DD992F-DEDF-4D46-BFE8-BB9E2B434733}"/>
-    <hyperlink ref="D19" location="UpdateNoUsername!A1" display="UpdateNoUsername" xr:uid="{45466BB2-300B-4F8D-AF1B-77C211E40F7C}"/>
-    <hyperlink ref="D20" location="UpdateCall!A1" display="UpdateCall" xr:uid="{40E7675E-E317-4C6B-90D0-E1C6CFF9F278}"/>
-    <hyperlink ref="D21" location="UpdateCall2!A1" display="UpdateCall2" xr:uid="{DCA9FA26-71EC-4DFB-B766-05C78461B621}"/>
-    <hyperlink ref="D22" location="UpdateNoEmail!A1" display="UpdateNoEmail" xr:uid="{2CA75190-A3E8-49DB-A818-A348C33A88F1}"/>
-    <hyperlink ref="D23" location="UpdateAndCancle!A1" display="UpdateAndCancle" xr:uid="{3984165C-002F-4977-84EB-9EE0E45B7DBD}"/>
-    <hyperlink ref="D24" location="AddAddress!A1" display="AddAddress" xr:uid="{7FC2C735-58CF-4A8E-BB0D-8EB0D26899D7}"/>
-    <hyperlink ref="D25" location="AddAddressNoUser!A1" display="AddAddressNoUser" xr:uid="{327048AB-2FEB-4C09-8E47-F612B99F3250}"/>
-    <hyperlink ref="D26" location="AddAddressErrorPhone!A1" display="AddAddressErrorPhone" xr:uid="{64E4F7D0-050C-45DF-9920-61DDA3DEC673}"/>
-    <hyperlink ref="D27" location="AddAddressDefault!A1" display="AddAddressDefault" xr:uid="{5BF2A057-30B1-4A14-9787-9F38694B5AD0}"/>
-    <hyperlink ref="D28" location="AddAddressErrorTelPhone!A1" display="AddAddressErrorTelPhone" xr:uid="{DEECFDE0-E3E1-4316-9047-E7A71DB0AAB7}"/>
-    <hyperlink ref="D29" location="ModifyAddress!A1" display="ModifyAddress" xr:uid="{5632C54C-8007-463A-A7BA-03B2B9574295}"/>
-    <hyperlink ref="D30" location="DelAddress!A1" display="DelAddress" xr:uid="{2183B1EE-38FA-478E-BBE1-7B35D0E17900}"/>
-    <hyperlink ref="D31" location="ModifyPWD!A1" display="ModifyPWD" xr:uid="{66883F5C-386C-4CCD-AE38-A9EB0A9961FF}"/>
-    <hyperlink ref="D32" location="ModifyPWD2!A1" display="ModifyPWD2" xr:uid="{BC8455DC-6663-4206-ACD9-2589D35515EA}"/>
-    <hyperlink ref="D33" location="ModifyNewPWDNull!A1" display="ModifyNowPWDNull" xr:uid="{EE80894D-D5BA-414E-A449-3D2210E83DC7}"/>
-    <hyperlink ref="D34" location="ModifyNowPWDError!A1" display="ModifyNowPWDError" xr:uid="{948F9CF0-A906-48A9-9157-DEE88AFCE2B8}"/>
-    <hyperlink ref="D35" location="ModifyNewPWDNull!A1" display="ModifyNewPWDNull" xr:uid="{B9CC5815-5105-465D-865D-42FFFEAF1F8E}"/>
-    <hyperlink ref="D36" location="ModifyQNewPWDNull!A1" display="ModifyQNewPWDNull" xr:uid="{8E7F9C6E-D181-4E99-8A82-88901E7460A4}"/>
-    <hyperlink ref="D37" location="ModifyPWDDifferent!A1" display="ModifyPWDDifferent" xr:uid="{DC6E4491-9BA6-465D-B89D-DD2F2AD155BC}"/>
-    <hyperlink ref="D39" location="ViewALL!A1" display="ViewALL" xr:uid="{57053694-5386-432D-9C56-CCCA91E0C151}"/>
-    <hyperlink ref="D40" location="ViewClassify!A1" display="ViewClassify" xr:uid="{DC0E33E2-254B-4473-A64F-7F8389AEEC12}"/>
-    <hyperlink ref="D41" location="ViewClassifyCrumbs!A1" display="ViewClassifyCrumbs" xr:uid="{D6F9E0DD-9240-4E3D-BFBF-E4BCA815A9A9}"/>
-    <hyperlink ref="D42" location="Compare!A1" display="Compare" xr:uid="{87FEAC81-3884-4EB4-B6F1-5186F487E2B4}"/>
-    <hyperlink ref="D43" location="ScreenList!A1" display="ScreenList" xr:uid="{001A8802-F7C6-49E1-BABB-5E6F76E3C788}"/>
-    <hyperlink ref="D44" location="PackUpScreen!A1" display="PackUpScreen" xr:uid="{AF05D37F-D054-4636-9FAC-6FB284BAC559}"/>
-    <hyperlink ref="D45" location="AscPrice!A1" display="AscPrice" xr:uid="{391C9C8F-5D72-4AFC-9C4B-CB3F5DBD5972}"/>
-    <hyperlink ref="D46" location="DescPrice!A1" display="DescPrice" xr:uid="{3EB105D0-8335-426A-94FD-044442B54E14}"/>
-    <hyperlink ref="D47" location="Paging!A1" display="Paging" xr:uid="{D9201AC1-8A1C-43C8-B76E-D620A467C0B5}"/>
-    <hyperlink ref="D48" location="QuickBuy!A1" display="QuickBuy" xr:uid="{F3DCA94E-165C-4E63-A43F-C50730EE5A0F}"/>
-    <hyperlink ref="D49" location="ComparePage!A1" display="ComparePage" xr:uid="{DFDC465A-62EF-4412-93F1-A27FB317A15B}"/>
-    <hyperlink ref="D50" location="ComparePageBuy!A1" display="ComparePageBuy" xr:uid="{507E2F30-FB31-4B2E-95A0-D86DCC3856B7}"/>
-    <hyperlink ref="D51" location="ComparePageCart!A1" display="ComparePageCart" xr:uid="{5CD0CF5B-AA73-410B-9B2D-5BF9F7EC0029}"/>
-    <hyperlink ref="D52" location="PDPCrumbs!A1" display="PDPCrumbs" xr:uid="{911EBA26-C3DE-4E11-A2FE-7E686201A9B3}"/>
-    <hyperlink ref="D53" location="ShareWeibo!A1" display="ShareWeibo" xr:uid="{0F036582-2AC7-49EA-845B-C62EB3213129}"/>
-    <hyperlink ref="D54" location="ShareWeChat!A1" display="ShareWeChat" xr:uid="{954358CC-4E5B-4FF7-BDAB-757B06661753}"/>
-    <hyperlink ref="D55" location="PDPDIY!A1" display="PDPDIY" xr:uid="{CF0C2A95-9296-48CA-AD68-223C3FB68FC1}"/>
-    <hyperlink ref="D56" location="PDPDIYEdit!A1" display="PDPDIYEdit" xr:uid="{EAD5902B-DC41-4881-9644-21830B40A4B5}"/>
-    <hyperlink ref="D57" location="RemoveDIY!A1" display="RemoveDIY" xr:uid="{876C96DF-B782-4549-8C53-EFC29DDFF47A}"/>
+    <hyperlink ref="D2" location="ViewTheHeader!A1" display="ViewTheHeader" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" location="ViewTheHeader2!A1" display="ViewTheHeader2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" location="SearchExist!A1" display="SearchExist" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" location="Search!A1" display="Search" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" location="SearchKeyWord!A1" display="SearchKeyWord" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D7" location="CategoryPages!A1" display="CategoryPages" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D8" location="Bottom!A1" display="Bottom" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D9" location="LoginNoPhone!A1" display="LoginNoPhone" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D10" location="LoginErrorPhone!A1" display="LoginErrorPhone" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D11" location="LoginNoPassword!A1" display="LoginNoPassword" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D12" location="LoginErrorPassword!A1" display="LoginErrorPassword" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D13" location="LoginOut!A1" display="LoginOut" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D14" location="MyAccount!A1" display="MyAccount" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D15" location="MyInfo!A1" display="MyInfo" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D16" location="InfoStore!A1" display="InfoStore" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D17" location="DiyCustom!A1" display="DiyCustom" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D18" location="UpdateInfo!A1" display="UpdateInfo" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D19" location="UpdateNoUsername!A1" display="UpdateNoUsername" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D20" location="UpdateCall!A1" display="UpdateCall" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D21" location="UpdateCall2!A1" display="UpdateCall2" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D22" location="UpdateNoEmail!A1" display="UpdateNoEmail" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D23" location="UpdateAndCancle!A1" display="UpdateAndCancle" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D24" location="AddAddress!A1" display="AddAddress" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D25" location="AddAddressNoUser!A1" display="AddAddressNoUser" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D26" location="AddAddressErrorPhone!A1" display="AddAddressErrorPhone" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D27" location="AddAddressDefault!A1" display="AddAddressDefault" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D28" location="AddAddressErrorTelPhone!A1" display="AddAddressErrorTelPhone" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D29" location="ModifyAddress!A1" display="ModifyAddress" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D30" location="DelAddress!A1" display="DelAddress" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D31" location="ModifyPWD!A1" display="ModifyPWD" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D32" location="ModifyPWD2!A1" display="ModifyPWD2" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D33" location="ModifyNewPWDNull!A1" display="ModifyNowPWDNull" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D34" location="ModifyNowPWDError!A1" display="ModifyNowPWDError" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D35" location="ModifyNewPWDNull!A1" display="ModifyNewPWDNull" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D36" location="ModifyQNewPWDNull!A1" display="ModifyQNewPWDNull" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D37" location="ModifyPWDDifferent!A1" display="ModifyPWDDifferent" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D38" location="ViewCrumbs!A1" display="ViewCrumbs" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D39" location="ViewALL!A1" display="ViewALL" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D40" location="ViewClassify!A1" display="ViewClassify" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D41" location="ViewClassifyCrumbs!A1" display="ViewClassifyCrumbs" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D42" location="Compare!A1" display="Compare" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D43" location="ScreenList!A1" display="ScreenList" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D44" location="PackUpScreen!A1" display="PackUpScreen" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D45" location="AscPrice!A1" display="AscPrice" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D46" location="DescPrice!A1" display="DescPrice" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D47" location="Paging!A1" display="Paging" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D48" location="QuickBuy!A1" display="QuickBuy" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D49" location="ComparePage!A1" display="ComparePage" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D50" location="ComparePageBuy!A1" display="ComparePageBuy" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D51" location="ComparePageCart!A1" display="ComparePageCart" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D52" location="PDPCrumbs!A1" display="PDPCrumbs" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D53" location="ShareWeibo!A1" display="ShareWeibo" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D54" location="ShareWeChat!A1" display="ShareWeChat" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D55" location="PDPDIY!A1" display="PDPDIY" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D56" location="PDPDIYEdit!A1" display="PDPDIYEdit" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D57" location="RemoveDIY!A1" display="RemoveDIY" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4207,7 +4223,7 @@
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="39" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4481,7 +4497,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4629,7 +4645,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4637,7 +4653,7 @@
     <col min="2" max="2" width="42.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="101.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="114.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4675,7 +4691,7 @@
         <v>185</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>217</v>
+        <v>306</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -4684,10 +4700,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
@@ -4700,7 +4716,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>184</v>
@@ -4709,7 +4725,7 @@
         <v>185</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F4" s="16"/>
     </row>
@@ -4718,7 +4734,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>184</v>
@@ -4727,7 +4743,7 @@
         <v>185</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -4745,10 +4761,10 @@
         <v>185</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1">
@@ -4756,7 +4772,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>184</v>
@@ -4765,7 +4781,7 @@
         <v>185</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -4780,7 +4796,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4789,7 +4805,7 @@
     <col min="3" max="3" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="71.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4817,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>184</v>
@@ -4826,7 +4842,7 @@
         <v>185</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -4835,7 +4851,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>184</v>
@@ -4844,7 +4860,7 @@
         <v>185</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>242</v>
+        <v>317</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -4853,15 +4869,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>244</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="30" t="s">
-        <v>213</v>
+      <c r="F4" s="29" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4875,7 +4891,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4884,7 +4900,7 @@
     <col min="3" max="3" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="89.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4912,10 +4928,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
@@ -4928,7 +4944,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>184</v>
@@ -4937,7 +4953,7 @@
         <v>185</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -4955,10 +4971,10 @@
         <v>185</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4966,7 +4982,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>246</v>
@@ -5082,7 +5098,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5090,8 +5106,8 @@
     <col min="2" max="2" width="20.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="75.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="89.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5128,7 +5144,7 @@
         <v>185</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>217</v>
+        <v>306</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -5146,7 +5162,7 @@
         <v>185</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>219</v>
+        <v>323</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -5178,10 +5194,10 @@
         <v>185</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>250</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
@@ -5189,10 +5205,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -5208,7 +5224,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -5268,7 +5286,7 @@
       <c r="D3" s="16"/>
       <c r="E3" s="6"/>
       <c r="F3" s="29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5306,16 +5324,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>184</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F6" s="28"/>
     </row>
@@ -5340,7 +5358,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>199</v>
@@ -5349,7 +5367,7 @@
         <v>270</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F8" s="28">
         <v>90000001</v>
@@ -5360,7 +5378,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>199</v>
@@ -5369,10 +5387,10 @@
         <v>270</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5380,7 +5398,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>184</v>
@@ -5389,7 +5407,7 @@
         <v>270</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F10" s="30"/>
     </row>
@@ -5414,7 +5432,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>184</v>
@@ -5423,7 +5441,7 @@
         <v>185</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F12" s="30"/>
     </row>
@@ -5457,7 +5475,7 @@
         <v>185</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="F14" s="16"/>
     </row>
@@ -5466,7 +5484,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>184</v>
@@ -5475,7 +5493,7 @@
         <v>185</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="F15" s="16"/>
     </row>
@@ -5484,7 +5502,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>244</v>
@@ -5492,7 +5510,7 @@
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -5544,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>199</v>
@@ -5553,10 +5571,10 @@
         <v>270</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
@@ -5564,7 +5582,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>199</v>
@@ -5573,10 +5591,10 @@
         <v>270</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
@@ -5584,7 +5602,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>199</v>
@@ -5593,10 +5611,10 @@
         <v>270</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
@@ -5604,7 +5622,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>184</v>
@@ -5613,7 +5631,7 @@
         <v>185</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -5631,10 +5649,10 @@
         <v>270</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1">
@@ -5699,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>199</v>
@@ -5708,10 +5726,10 @@
         <v>270</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
@@ -5719,7 +5737,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>199</v>
@@ -5728,10 +5746,10 @@
         <v>270</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
@@ -5739,7 +5757,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>184</v>
@@ -5748,7 +5766,7 @@
         <v>185</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F4" s="16"/>
     </row>
@@ -5766,10 +5784,10 @@
         <v>270</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -5818,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>199</v>
@@ -5827,10 +5845,10 @@
         <v>270</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
@@ -5838,7 +5856,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>199</v>
@@ -5847,10 +5865,10 @@
         <v>270</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
@@ -5858,7 +5876,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>184</v>
@@ -5867,7 +5885,7 @@
         <v>185</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F4" s="30"/>
     </row>
@@ -5885,10 +5903,10 @@
         <v>270</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5939,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>199</v>
@@ -5948,10 +5966,10 @@
         <v>270</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
@@ -5959,7 +5977,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>199</v>
@@ -5968,10 +5986,10 @@
         <v>270</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
@@ -5979,7 +5997,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>199</v>
@@ -5988,10 +6006,10 @@
         <v>270</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
@@ -5999,7 +6017,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>184</v>
@@ -6008,7 +6026,7 @@
         <v>185</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -6026,10 +6044,10 @@
         <v>270</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -6079,7 +6097,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>184</v>
@@ -6088,7 +6106,7 @@
         <v>185</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F2" s="30"/>
     </row>
@@ -6097,7 +6115,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>199</v>
@@ -6106,10 +6124,10 @@
         <v>270</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
@@ -6117,7 +6135,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>199</v>
@@ -6126,10 +6144,10 @@
         <v>270</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
@@ -6137,7 +6155,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>199</v>
@@ -6146,10 +6164,10 @@
         <v>270</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
@@ -6157,7 +6175,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>184</v>
@@ -6166,7 +6184,7 @@
         <v>185</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F6" s="23"/>
     </row>
@@ -6218,7 +6236,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>184</v>
@@ -6227,7 +6245,7 @@
         <v>185</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F2" s="30"/>
     </row>
@@ -6236,7 +6254,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>199</v>
@@ -6245,10 +6263,10 @@
         <v>270</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
@@ -6256,7 +6274,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>199</v>
@@ -6265,10 +6283,10 @@
         <v>270</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
@@ -6276,7 +6294,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>199</v>
@@ -6285,10 +6303,10 @@
         <v>270</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
@@ -6296,7 +6314,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>184</v>
@@ -6305,7 +6323,7 @@
         <v>185</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -6323,10 +6341,10 @@
         <v>185</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -6376,7 +6394,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>184</v>
@@ -6385,7 +6403,7 @@
         <v>185</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F2" s="30"/>
     </row>
@@ -6394,7 +6412,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>199</v>
@@ -6403,10 +6421,10 @@
         <v>270</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
@@ -6414,7 +6432,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>199</v>
@@ -6423,10 +6441,10 @@
         <v>270</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
@@ -6434,7 +6452,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>184</v>
@@ -6443,7 +6461,7 @@
         <v>185</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -6461,10 +6479,10 @@
         <v>270</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -6526,7 +6544,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="35" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>184</v>
@@ -6535,7 +6553,7 @@
         <v>185</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6549,10 +6567,10 @@
         <v>185</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -6825,7 +6843,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>184</v>
@@ -6834,13 +6852,13 @@
         <v>185</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="B3" s="35" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>184</v>
@@ -6849,12 +6867,12 @@
         <v>185</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="B4" s="35" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>199</v>
@@ -6863,18 +6881,18 @@
         <v>270</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="30" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
@@ -6884,7 +6902,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="30" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>184</v>
@@ -6893,7 +6911,7 @@
         <v>185</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F6" s="30"/>
     </row>
@@ -6908,10 +6926,10 @@
         <v>185</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -6960,7 +6978,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>184</v>
@@ -6969,7 +6987,7 @@
         <v>185</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F2" s="30"/>
     </row>
@@ -6978,7 +6996,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>199</v>
@@ -6987,10 +7005,10 @@
         <v>270</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6998,7 +7016,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>199</v>
@@ -7007,7 +7025,7 @@
         <v>270</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F4" s="30">
         <v>9000000</v>
@@ -7018,7 +7036,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>184</v>
@@ -7027,7 +7045,7 @@
         <v>270</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F5" s="30"/>
     </row>
@@ -7036,7 +7054,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>184</v>
@@ -7045,7 +7063,7 @@
         <v>185</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F6" s="30"/>
     </row>
@@ -7054,7 +7072,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>184</v>
@@ -7063,14 +7081,14 @@
         <v>185</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" s="34" customFormat="1">
       <c r="A8" s="29"/>
       <c r="B8" s="30" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>184</v>
@@ -7079,14 +7097,14 @@
         <v>185</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" s="34" customFormat="1" ht="18.75" customHeight="1">
       <c r="A9" s="29"/>
       <c r="B9" s="30" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>199</v>
@@ -7095,7 +7113,7 @@
         <v>270</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F9" s="30">
         <v>5555555</v>
@@ -7106,7 +7124,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>199</v>
@@ -7115,10 +7133,10 @@
         <v>270</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7126,10 +7144,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
@@ -7142,7 +7160,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>184</v>
@@ -7151,7 +7169,7 @@
         <v>185</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F12" s="30"/>
     </row>
@@ -7169,15 +7187,15 @@
         <v>270</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="37" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>246</v>
@@ -7185,7 +7203,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="37" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>246</v>
@@ -7193,7 +7211,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="37" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>246</v>
@@ -7245,7 +7263,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>184</v>
@@ -7254,7 +7272,7 @@
         <v>185</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F2" s="30"/>
     </row>
@@ -7263,7 +7281,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>199</v>
@@ -7272,10 +7290,10 @@
         <v>270</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7283,7 +7301,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>199</v>
@@ -7292,7 +7310,7 @@
         <v>270</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F4" s="28">
         <v>90000001</v>
@@ -7303,7 +7321,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>184</v>
@@ -7312,7 +7330,7 @@
         <v>270</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F5" s="30"/>
     </row>
@@ -7321,7 +7339,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>184</v>
@@ -7330,7 +7348,7 @@
         <v>185</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F6" s="30"/>
     </row>
@@ -7339,7 +7357,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>184</v>
@@ -7348,14 +7366,14 @@
         <v>185</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" s="34" customFormat="1">
       <c r="A8" s="29"/>
       <c r="B8" s="30" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>184</v>
@@ -7364,7 +7382,7 @@
         <v>185</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F8" s="30"/>
     </row>
@@ -7373,7 +7391,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>199</v>
@@ -7382,16 +7400,16 @@
         <v>270</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="29"/>
       <c r="B10" s="30" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>184</v>
@@ -7400,7 +7418,7 @@
         <v>185</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F10" s="30"/>
     </row>
@@ -7409,10 +7427,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
@@ -7425,7 +7443,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>184</v>
@@ -7434,7 +7452,7 @@
         <v>185</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F12" s="30"/>
     </row>
@@ -7452,10 +7470,10 @@
         <v>185</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" s="34" customFormat="1" ht="14.25" customHeight="1"/>
@@ -7507,7 +7525,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>184</v>
@@ -7516,7 +7534,7 @@
         <v>185</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F2" s="30"/>
     </row>
@@ -7525,7 +7543,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>199</v>
@@ -7534,10 +7552,10 @@
         <v>270</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7545,7 +7563,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>199</v>
@@ -7554,7 +7572,7 @@
         <v>270</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F4" s="28">
         <v>9000000</v>
@@ -7565,7 +7583,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>184</v>
@@ -7574,7 +7592,7 @@
         <v>270</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F5" s="30"/>
     </row>
@@ -7583,7 +7601,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>184</v>
@@ -7592,7 +7610,7 @@
         <v>185</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F6" s="30"/>
     </row>
@@ -7601,7 +7619,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>184</v>
@@ -7610,14 +7628,14 @@
         <v>185</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" s="34" customFormat="1">
       <c r="A8" s="29"/>
       <c r="B8" s="30" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>184</v>
@@ -7626,7 +7644,7 @@
         <v>185</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F8" s="30"/>
     </row>
@@ -7635,7 +7653,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>199</v>
@@ -7644,10 +7662,10 @@
         <v>270</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7655,10 +7673,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
@@ -7671,7 +7689,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>184</v>
@@ -7680,7 +7698,7 @@
         <v>185</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F11" s="30"/>
     </row>
@@ -7698,15 +7716,15 @@
         <v>270</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="37" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>246</v>
@@ -7714,7 +7732,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="34" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>246</v>
@@ -7722,7 +7740,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="34" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>246</v>
@@ -7777,7 +7795,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>184</v>
@@ -7786,7 +7804,7 @@
         <v>185</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F2" s="30"/>
     </row>
@@ -7795,7 +7813,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>199</v>
@@ -7804,7 +7822,7 @@
         <v>270</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F3" s="28">
         <v>90000001</v>
@@ -7815,7 +7833,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>184</v>
@@ -7824,7 +7842,7 @@
         <v>270</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F4" s="30"/>
     </row>
@@ -7833,7 +7851,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>184</v>
@@ -7842,7 +7860,7 @@
         <v>185</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F5" s="30"/>
     </row>
@@ -7851,7 +7869,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>184</v>
@@ -7860,14 +7878,14 @@
         <v>185</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" s="34" customFormat="1">
       <c r="A7" s="29"/>
       <c r="B7" s="30" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>184</v>
@@ -7876,7 +7894,7 @@
         <v>185</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F7" s="30"/>
     </row>
@@ -7885,7 +7903,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>199</v>
@@ -7894,10 +7912,10 @@
         <v>270</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="34" customFormat="1">
@@ -7905,10 +7923,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
@@ -7921,7 +7939,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>184</v>
@@ -7930,7 +7948,7 @@
         <v>185</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F10" s="30"/>
     </row>
@@ -7948,15 +7966,15 @@
         <v>270</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="34" customFormat="1">
       <c r="B12" s="37" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>246</v>
@@ -7964,7 +7982,7 @@
     </row>
     <row r="13" spans="1:6" s="34" customFormat="1">
       <c r="B13" s="34" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>246</v>
@@ -7972,7 +7990,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="34" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>246</v>
@@ -8049,7 +8067,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="34" customFormat="1">
@@ -8087,16 +8105,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>184</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F6" s="28"/>
     </row>
@@ -8121,7 +8139,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>199</v>
@@ -8130,7 +8148,7 @@
         <v>270</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F8" s="28">
         <v>90000001</v>
@@ -8141,7 +8159,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>199</v>
@@ -8150,10 +8168,10 @@
         <v>270</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="34" customFormat="1">
@@ -8161,7 +8179,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>184</v>
@@ -8170,7 +8188,7 @@
         <v>270</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F10" s="28"/>
     </row>
@@ -8195,7 +8213,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>184</v>
@@ -8204,7 +8222,7 @@
         <v>185</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F12" s="6"/>
     </row>
@@ -8213,7 +8231,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>184</v>
@@ -8222,7 +8240,7 @@
         <v>185</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F13" s="30"/>
     </row>
@@ -8231,7 +8249,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>184</v>
@@ -8240,7 +8258,7 @@
         <v>185</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F14" s="30"/>
     </row>
@@ -8249,7 +8267,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>199</v>
@@ -8258,10 +8276,10 @@
         <v>270</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8269,7 +8287,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>199</v>
@@ -8278,7 +8296,7 @@
         <v>270</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F16" s="28">
         <v>90000001</v>
@@ -8289,7 +8307,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C17" s="30" t="s">
         <v>184</v>
@@ -8298,7 +8316,7 @@
         <v>270</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F17" s="30"/>
     </row>
@@ -8307,7 +8325,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>184</v>
@@ -8316,7 +8334,7 @@
         <v>185</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F18" s="30"/>
     </row>
@@ -8325,7 +8343,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>184</v>
@@ -8334,14 +8352,14 @@
         <v>185</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6" s="34" customFormat="1">
       <c r="A20" s="29"/>
       <c r="B20" s="30" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>184</v>
@@ -8350,7 +8368,7 @@
         <v>185</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F20" s="30"/>
     </row>
@@ -8359,7 +8377,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C21" s="30" t="s">
         <v>199</v>
@@ -8368,10 +8386,10 @@
         <v>270</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -8379,10 +8397,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
@@ -8395,7 +8413,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>184</v>
@@ -8404,7 +8422,7 @@
         <v>185</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F23" s="30"/>
     </row>
@@ -8422,10 +8440,10 @@
         <v>185</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -8474,7 +8492,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>184</v>
@@ -8483,7 +8501,7 @@
         <v>185</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F2" s="29"/>
     </row>
@@ -8492,10 +8510,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
@@ -8508,7 +8526,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>184</v>
@@ -8517,7 +8535,7 @@
         <v>185</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -8535,10 +8553,10 @@
         <v>185</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8598,7 +8616,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>184</v>
@@ -8607,7 +8625,7 @@
         <v>185</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F2" s="6"/>
     </row>
@@ -8616,7 +8634,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>196</v>
@@ -8625,7 +8643,7 @@
         <v>270</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -8634,10 +8652,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
@@ -8650,7 +8668,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>184</v>
@@ -8659,7 +8677,7 @@
         <v>185</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F5" s="30"/>
     </row>
@@ -8677,15 +8695,15 @@
         <v>270</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="37" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>246</v>
@@ -8693,7 +8711,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="37" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>246</v>
@@ -8745,7 +8763,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>184</v>
@@ -8754,7 +8772,7 @@
         <v>185</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F2" s="30"/>
     </row>
@@ -8763,7 +8781,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>184</v>
@@ -8772,7 +8790,7 @@
         <v>270</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F3" s="30"/>
     </row>
@@ -8781,7 +8799,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>184</v>
@@ -8790,7 +8808,7 @@
         <v>185</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F4" s="16"/>
     </row>
@@ -8799,10 +8817,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
@@ -8815,7 +8833,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>184</v>
@@ -8824,7 +8842,7 @@
         <v>185</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F6" s="30"/>
     </row>
@@ -8842,10 +8860,10 @@
         <v>185</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -8897,7 +8915,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>184</v>
@@ -8906,13 +8924,13 @@
         <v>185</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="35" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>184</v>
@@ -8921,12 +8939,12 @@
         <v>270</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="35" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>184</v>
@@ -8935,15 +8953,15 @@
         <v>185</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="34" customFormat="1">
       <c r="B5" s="35" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
@@ -8953,7 +8971,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="35" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>184</v>
@@ -8962,7 +8980,7 @@
         <v>185</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F6" s="34"/>
     </row>
@@ -8977,15 +8995,15 @@
         <v>270</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="35" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>246</v>
@@ -8993,7 +9011,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="35" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>246</v>
@@ -9412,7 +9430,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>184</v>
@@ -9421,7 +9439,7 @@
         <v>185</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F2" s="29"/>
     </row>
@@ -9430,7 +9448,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>196</v>
@@ -9439,7 +9457,7 @@
         <v>270</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F3" s="28"/>
     </row>
@@ -9448,10 +9466,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -9464,7 +9482,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>184</v>
@@ -9473,7 +9491,7 @@
         <v>185</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F5" s="29"/>
     </row>
@@ -9491,10 +9509,10 @@
         <v>270</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9502,7 +9520,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>246</v>
@@ -9516,7 +9534,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>246</v>
@@ -9571,7 +9589,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>184</v>
@@ -9580,7 +9598,7 @@
         <v>185</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F2" s="28"/>
     </row>
@@ -9589,7 +9607,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>196</v>
@@ -9598,7 +9616,7 @@
         <v>270</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F3" s="28"/>
     </row>
@@ -9607,7 +9625,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>199</v>
@@ -9616,10 +9634,10 @@
         <v>270</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -9627,7 +9645,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>184</v>
@@ -9636,7 +9654,7 @@
         <v>270</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F5" s="28"/>
     </row>
@@ -9645,7 +9663,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>184</v>
@@ -9654,7 +9672,7 @@
         <v>185</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F6" s="28"/>
     </row>
@@ -9663,7 +9681,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>196</v>
@@ -9672,7 +9690,7 @@
         <v>270</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F7" s="28"/>
     </row>
@@ -9681,7 +9699,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>199</v>
@@ -9690,10 +9708,10 @@
         <v>270</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9701,10 +9719,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -9717,7 +9735,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>184</v>
@@ -9726,7 +9744,7 @@
         <v>185</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F10" s="29"/>
     </row>
@@ -9744,10 +9762,10 @@
         <v>185</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -9801,7 +9819,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>184</v>
@@ -9810,7 +9828,7 @@
         <v>185</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F2" s="6"/>
     </row>
@@ -9819,7 +9837,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>199</v>
@@ -9828,10 +9846,10 @@
         <v>270</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -9839,7 +9857,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>184</v>
@@ -9848,7 +9866,7 @@
         <v>185</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -9882,10 +9900,10 @@
         <v>185</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9966,7 +9984,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>184</v>
@@ -9975,7 +9993,7 @@
         <v>185</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -9992,7 +10010,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
@@ -10000,7 +10018,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>184</v>
@@ -10009,7 +10027,7 @@
         <v>185</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -10027,10 +10045,10 @@
         <v>185</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -10095,7 +10113,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>184</v>
@@ -10104,7 +10122,7 @@
         <v>185</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F3" s="29"/>
     </row>
@@ -10122,10 +10140,10 @@
         <v>185</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
@@ -10142,10 +10160,10 @@
         <v>185</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
@@ -10162,10 +10180,10 @@
         <v>185</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -10245,7 +10263,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10283,16 +10301,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>184</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F6" s="28"/>
     </row>
@@ -10317,7 +10335,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>199</v>
@@ -10326,7 +10344,7 @@
         <v>270</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F8" s="28">
         <v>90000001</v>
@@ -10337,7 +10355,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>199</v>
@@ -10346,10 +10364,10 @@
         <v>270</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -10357,7 +10375,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>184</v>
@@ -10366,7 +10384,7 @@
         <v>270</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F10" s="28"/>
     </row>
@@ -10391,7 +10409,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>184</v>
@@ -10400,7 +10418,7 @@
         <v>185</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F12" s="6"/>
     </row>
@@ -10418,10 +10436,10 @@
         <v>185</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.75" customHeight="1">
@@ -10429,7 +10447,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>246</v>
@@ -10486,16 +10504,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>184</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F2" s="28"/>
     </row>
@@ -10520,7 +10538,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>199</v>
@@ -10529,7 +10547,7 @@
         <v>270</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F4" s="28">
         <v>90000001</v>
@@ -10540,7 +10558,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>199</v>
@@ -10549,10 +10567,10 @@
         <v>270</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10560,7 +10578,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>184</v>
@@ -10569,7 +10587,7 @@
         <v>270</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F6" s="28"/>
     </row>
@@ -10594,7 +10612,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>184</v>
@@ -10603,7 +10621,7 @@
         <v>185</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F8" s="28"/>
     </row>
@@ -10612,16 +10630,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>184</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F9" s="6"/>
     </row>
@@ -10636,13 +10654,13 @@
         <v>190</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -10701,16 +10719,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>184</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F2" s="28"/>
     </row>
@@ -10735,7 +10753,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>199</v>
@@ -10744,7 +10762,7 @@
         <v>270</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F4" s="28">
         <v>90000001</v>
@@ -10755,7 +10773,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>199</v>
@@ -10764,10 +10782,10 @@
         <v>270</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10775,7 +10793,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>184</v>
@@ -10784,7 +10802,7 @@
         <v>270</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F6" s="28"/>
     </row>
@@ -10802,10 +10820,10 @@
         <v>185</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1">
@@ -10864,16 +10882,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>184</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F2" s="28"/>
     </row>
@@ -10898,7 +10916,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>199</v>
@@ -10907,7 +10925,7 @@
         <v>270</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F4" s="28">
         <v>90000001</v>
@@ -10918,7 +10936,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>184</v>
@@ -10927,7 +10945,7 @@
         <v>270</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F5" s="28"/>
     </row>
@@ -10945,10 +10963,10 @@
         <v>270</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1">
@@ -11007,16 +11025,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>184</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F2" s="28"/>
     </row>
@@ -11041,7 +11059,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>199</v>
@@ -11050,7 +11068,7 @@
         <v>270</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F4" s="28">
         <v>90000011</v>
@@ -11061,7 +11079,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>199</v>
@@ -11070,10 +11088,10 @@
         <v>270</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11081,7 +11099,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>184</v>
@@ -11090,7 +11108,7 @@
         <v>270</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F6" s="28"/>
     </row>
@@ -11108,10 +11126,10 @@
         <v>185</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1">
@@ -11305,7 +11323,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="34" customFormat="1">
@@ -11343,16 +11361,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>184</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F6" s="28"/>
     </row>
@@ -11377,7 +11395,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>199</v>
@@ -11386,10 +11404,10 @@
         <v>270</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -11397,7 +11415,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>184</v>
@@ -11406,7 +11424,7 @@
         <v>270</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F9" s="28"/>
     </row>
@@ -11424,10 +11442,10 @@
         <v>270</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75" customHeight="1">
@@ -11486,10 +11504,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -11502,7 +11520,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>184</v>
@@ -11511,7 +11529,7 @@
         <v>185</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F3" s="29"/>
     </row>
@@ -11550,7 +11568,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>244</v>
@@ -11558,7 +11576,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11566,10 +11584,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -11580,7 +11598,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>184</v>
@@ -11589,7 +11607,7 @@
         <v>185</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="F8" s="29"/>
     </row>
@@ -11628,7 +11646,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>244</v>
@@ -11636,7 +11654,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -11644,10 +11662,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -11658,7 +11676,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>184</v>
@@ -11667,7 +11685,7 @@
         <v>185</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="F13" s="29"/>
     </row>
@@ -11706,7 +11724,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>244</v>
@@ -11714,7 +11732,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
@@ -11777,10 +11795,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -11793,7 +11811,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>184</v>
@@ -11802,7 +11820,7 @@
         <v>270</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -11834,10 +11852,10 @@
         <v>185</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>473</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11845,10 +11863,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -11859,7 +11877,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>184</v>
@@ -11868,7 +11886,7 @@
         <v>270</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F7" s="6"/>
     </row>
@@ -11900,10 +11918,10 @@
         <v>185</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -11911,10 +11929,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -11925,7 +11943,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>184</v>
@@ -11934,7 +11952,7 @@
         <v>270</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F11" s="6"/>
     </row>
@@ -11966,10 +11984,10 @@
         <v>185</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -11977,10 +11995,10 @@
         <v>19</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -11991,7 +12009,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>184</v>
@@ -12000,7 +12018,7 @@
         <v>270</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F15" s="6"/>
     </row>
@@ -12032,10 +12050,10 @@
         <v>185</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -12043,10 +12061,10 @@
         <v>24</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -12057,7 +12075,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C19" s="28" t="s">
         <v>184</v>
@@ -12066,7 +12084,7 @@
         <v>270</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F19" s="6"/>
     </row>
@@ -12098,10 +12116,10 @@
         <v>185</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -12109,10 +12127,10 @@
         <v>29</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -12123,7 +12141,7 @@
         <v>31</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>184</v>
@@ -12132,7 +12150,7 @@
         <v>270</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F23" s="6"/>
     </row>
@@ -12164,10 +12182,10 @@
         <v>185</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="34" customFormat="1">
@@ -12175,10 +12193,10 @@
         <v>9</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -12232,7 +12250,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>199</v>
@@ -12241,10 +12259,10 @@
         <v>270</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -12252,16 +12270,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>270</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -12270,7 +12288,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>184</v>
@@ -12279,7 +12297,7 @@
         <v>185</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -12297,15 +12315,15 @@
         <v>185</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="36" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>246</v>
@@ -12359,7 +12377,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>199</v>
@@ -12368,10 +12386,10 @@
         <v>270</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -12379,7 +12397,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>184</v>
@@ -12388,7 +12406,7 @@
         <v>185</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -12406,15 +12424,15 @@
         <v>185</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="36" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>246</v>
@@ -12468,7 +12486,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>199</v>
@@ -12477,10 +12495,10 @@
         <v>270</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -12488,16 +12506,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>270</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -12531,15 +12549,15 @@
         <v>185</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="B6" s="36" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>196</v>
@@ -12548,7 +12566,7 @@
         <v>270</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -12615,7 +12633,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>199</v>
@@ -12624,7 +12642,7 @@
         <v>270</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F3" s="28">
         <v>90000001</v>
@@ -12635,7 +12653,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>199</v>
@@ -12644,10 +12662,10 @@
         <v>270</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -12655,7 +12673,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>184</v>
@@ -12664,7 +12682,7 @@
         <v>270</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F5" s="28"/>
     </row>
@@ -12689,7 +12707,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>184</v>
@@ -12698,7 +12716,7 @@
         <v>185</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F7" s="28"/>
     </row>
@@ -12707,7 +12725,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>184</v>
@@ -12716,7 +12734,7 @@
         <v>185</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -12725,7 +12743,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>237</v>
@@ -12733,7 +12751,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="9" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -12741,7 +12759,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>184</v>
@@ -12750,7 +12768,7 @@
         <v>185</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F10" s="6"/>
     </row>
@@ -12773,7 +12791,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>237</v>
@@ -12781,7 +12799,7 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="9" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -12789,10 +12807,10 @@
         <v>17</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -12803,7 +12821,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>184</v>
@@ -12812,7 +12830,7 @@
         <v>185</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F14" s="28"/>
     </row>
@@ -12835,7 +12853,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>237</v>
@@ -12843,7 +12861,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="9" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -12860,10 +12878,10 @@
         <v>185</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -12871,10 +12889,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
@@ -12885,7 +12903,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C19" s="28" t="s">
         <v>184</v>
@@ -12894,7 +12912,7 @@
         <v>185</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F19" s="28"/>
     </row>
@@ -12925,7 +12943,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -12933,10 +12951,10 @@
         <v>26</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
@@ -12947,7 +12965,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>184</v>
@@ -12956,7 +12974,7 @@
         <v>270</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F23" s="28"/>
     </row>
@@ -12973,7 +12991,7 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -12981,7 +12999,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C25" s="28" t="s">
         <v>246</v>
@@ -12995,7 +13013,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>184</v>
@@ -13004,7 +13022,7 @@
         <v>185</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F26" s="28"/>
     </row>
@@ -13021,12 +13039,12 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="36" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C28" s="36" t="s">
         <v>246</v>
@@ -13103,7 +13121,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -13141,7 +13159,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>184</v>
@@ -13150,7 +13168,7 @@
         <v>185</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F6" s="6"/>
     </row>
@@ -13159,7 +13177,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>237</v>
@@ -13167,7 +13185,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="9" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -13175,7 +13193,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>184</v>
@@ -13184,7 +13202,7 @@
         <v>185</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -13207,7 +13225,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>237</v>
@@ -13215,7 +13233,7 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="9" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75" customHeight="1">
@@ -13223,10 +13241,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -13237,7 +13255,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>184</v>
@@ -13246,7 +13264,7 @@
         <v>185</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F12" s="28"/>
     </row>
@@ -13269,7 +13287,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>237</v>
@@ -13277,7 +13295,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="9" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -13294,10 +13312,10 @@
         <v>185</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -13305,10 +13323,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
@@ -13319,7 +13337,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>184</v>
@@ -13328,7 +13346,7 @@
         <v>185</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F17" s="28"/>
     </row>
@@ -13359,7 +13377,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -13367,10 +13385,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
@@ -13381,7 +13399,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>184</v>
@@ -13390,7 +13408,7 @@
         <v>270</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F21" s="28"/>
     </row>
@@ -13407,7 +13425,7 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -13415,7 +13433,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>246</v>
@@ -13429,16 +13447,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C24" s="28" t="s">
         <v>184</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F24" s="28"/>
     </row>
@@ -13472,10 +13490,10 @@
         <v>185</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G26" s="35"/>
     </row>
@@ -13548,7 +13566,7 @@
         <v>212</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -13581,16 +13599,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -13599,19 +13617,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>199</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -13619,19 +13637,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>199</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -13639,7 +13657,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>184</v>
@@ -13648,7 +13666,7 @@
         <v>270</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -13671,13 +13689,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -13764,7 +13782,7 @@
         <v>212</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -13797,16 +13815,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -13815,19 +13833,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>199</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -13835,19 +13853,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>199</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -13855,7 +13873,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>184</v>
@@ -13864,7 +13882,7 @@
         <v>270</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -13887,13 +13905,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -13915,7 +13933,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C13" s="34" t="s">
         <v>184</v>
@@ -13924,7 +13942,7 @@
         <v>185</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -13946,19 +13964,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>199</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -13966,19 +13984,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -13986,16 +14004,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -14003,19 +14021,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C18" s="34" t="s">
         <v>199</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -14023,10 +14041,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -14034,7 +14052,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>184</v>
@@ -14043,7 +14061,7 @@
         <v>185</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -14065,13 +14083,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:6">
